--- a/biology/Origine et évolution du vivant/Collembola_(classification_phylogénétique)/Collembola_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Collembola_(classification_phylogénétique)/Collembola_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Collembola_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Collembola_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Collembola (collemboles), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Collembola_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Collembola_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -650,7 +664,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Collembola_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Collembola_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -668,7 +682,9 @@
           <t>Débat scientifique relatif à la phylogénie des Collembola</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre ci-dessus suit l'analyse moléculaire de Robertson, les super-familles et sous-familles provenant de Janssens. Les Entomobryomorpha sont paraphylétiques, et la racine de l'arbre ne se trouve pas parmi les espèces aquatiques.
 </t>
@@ -681,7 +697,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Collembola_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Collembola_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -701,15 +717,86 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-Autres sources bibliographiques
-Sources internet
-Peter F. Bellinger, Kenneth A. Christiansen, Frans Janssens, « Checklist of the Collembola: Families », in Collembola of the World
-James A. Robertson : The Phylogeny of the Collembola based on Morphological and Molecular Data, AMNH REU Presentations 2001 On-Line
-Images
-Wikimedia Commons : Images de Collemboles
-Liens internes
-Arbre phylogénétique
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Peter F. Bellinger, Kenneth A. Christiansen, Frans Janssens, « Checklist of the Collembola: Families », in Collembola of the World
+James A. Robertson : The Phylogeny of the Collembola based on Morphological and Molecular Data, AMNH REU Presentations 2001 On-Line</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Collembola_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collembola_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Images</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Wikimedia Commons : Images de Collemboles</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Collembola_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collembola_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique
 Collembola
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
